--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T94"/>
+  <dimension ref="A1:T95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6482,6 +6482,70 @@
         <v>41.62216190995878</v>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-08</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>78</v>
+      </c>
+      <c r="C95" t="n">
+        <v>166</v>
+      </c>
+      <c r="D95" t="n">
+        <v>24</v>
+      </c>
+      <c r="E95" t="n">
+        <v>57</v>
+      </c>
+      <c r="F95" t="n">
+        <v>108</v>
+      </c>
+      <c r="G95" t="n">
+        <v>45</v>
+      </c>
+      <c r="H95" t="n">
+        <v>22</v>
+      </c>
+      <c r="I95" t="n">
+        <v>42</v>
+      </c>
+      <c r="J95" t="n">
+        <v>30</v>
+      </c>
+      <c r="K95" t="n">
+        <v>272</v>
+      </c>
+      <c r="L95" t="n">
+        <v>54</v>
+      </c>
+      <c r="M95" t="n">
+        <v>72</v>
+      </c>
+      <c r="N95" t="n">
+        <v>30</v>
+      </c>
+      <c r="O95" t="n">
+        <v>44.15473313322942</v>
+      </c>
+      <c r="P95" t="n">
+        <v>1.304260865</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>10.18034603408593</v>
+      </c>
+      <c r="R95" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="S95" t="n">
+        <v>26.63551401869159</v>
+      </c>
+      <c r="T95" t="n">
+        <v>40.93945814970623</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T95"/>
+  <dimension ref="A1:T96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6546,6 +6546,70 @@
         <v>40.93945814970623</v>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>80</v>
+      </c>
+      <c r="C96" t="n">
+        <v>176</v>
+      </c>
+      <c r="D96" t="n">
+        <v>23</v>
+      </c>
+      <c r="E96" t="n">
+        <v>53</v>
+      </c>
+      <c r="F96" t="n">
+        <v>109</v>
+      </c>
+      <c r="G96" t="n">
+        <v>35</v>
+      </c>
+      <c r="H96" t="n">
+        <v>22</v>
+      </c>
+      <c r="I96" t="n">
+        <v>47</v>
+      </c>
+      <c r="J96" t="n">
+        <v>29</v>
+      </c>
+      <c r="K96" t="n">
+        <v>270</v>
+      </c>
+      <c r="L96" t="n">
+        <v>55</v>
+      </c>
+      <c r="M96" t="n">
+        <v>70</v>
+      </c>
+      <c r="N96" t="n">
+        <v>27</v>
+      </c>
+      <c r="O96" t="n">
+        <v>44.3509380456548</v>
+      </c>
+      <c r="P96" t="n">
+        <v>1.3233946525</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>13.43477942161729</v>
+      </c>
+      <c r="R96" t="n">
+        <v>6.06425702811245</v>
+      </c>
+      <c r="S96" t="n">
+        <v>25.93457943925234</v>
+      </c>
+      <c r="T96" t="n">
+        <v>40.16475484963328</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T96"/>
+  <dimension ref="A1:T97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6610,6 +6610,70 @@
         <v>40.16475484963328</v>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-13</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>80</v>
+      </c>
+      <c r="C97" t="n">
+        <v>176</v>
+      </c>
+      <c r="D97" t="n">
+        <v>20</v>
+      </c>
+      <c r="E97" t="n">
+        <v>51</v>
+      </c>
+      <c r="F97" t="n">
+        <v>107</v>
+      </c>
+      <c r="G97" t="n">
+        <v>37</v>
+      </c>
+      <c r="H97" t="n">
+        <v>23</v>
+      </c>
+      <c r="I97" t="n">
+        <v>52</v>
+      </c>
+      <c r="J97" t="n">
+        <v>25</v>
+      </c>
+      <c r="K97" t="n">
+        <v>259</v>
+      </c>
+      <c r="L97" t="n">
+        <v>58</v>
+      </c>
+      <c r="M97" t="n">
+        <v>68</v>
+      </c>
+      <c r="N97" t="n">
+        <v>32</v>
+      </c>
+      <c r="O97" t="n">
+        <v>44.45672913918482</v>
+      </c>
+      <c r="P97" t="n">
+        <v>1.4515414725</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>13.10790035822746</v>
+      </c>
+      <c r="R97" t="n">
+        <v>6.159919028340081</v>
+      </c>
+      <c r="S97" t="n">
+        <v>26.99530516431925</v>
+      </c>
+      <c r="T97" t="n">
+        <v>40.64294211652991</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T97"/>
+  <dimension ref="A1:T98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6674,6 +6674,70 @@
         <v>40.64294211652991</v>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>80</v>
+      </c>
+      <c r="C98" t="n">
+        <v>173</v>
+      </c>
+      <c r="D98" t="n">
+        <v>20</v>
+      </c>
+      <c r="E98" t="n">
+        <v>48</v>
+      </c>
+      <c r="F98" t="n">
+        <v>107</v>
+      </c>
+      <c r="G98" t="n">
+        <v>35</v>
+      </c>
+      <c r="H98" t="n">
+        <v>24</v>
+      </c>
+      <c r="I98" t="n">
+        <v>60</v>
+      </c>
+      <c r="J98" t="n">
+        <v>25</v>
+      </c>
+      <c r="K98" t="n">
+        <v>250</v>
+      </c>
+      <c r="L98" t="n">
+        <v>54</v>
+      </c>
+      <c r="M98" t="n">
+        <v>64</v>
+      </c>
+      <c r="N98" t="n">
+        <v>34</v>
+      </c>
+      <c r="O98" t="n">
+        <v>43.72044176966136</v>
+      </c>
+      <c r="P98" t="n">
+        <v>1.69704335875</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>12.61726705884552</v>
+      </c>
+      <c r="R98" t="n">
+        <v>6.236139630390143</v>
+      </c>
+      <c r="S98" t="n">
+        <v>26.71394799054373</v>
+      </c>
+      <c r="T98" t="n">
+        <v>40.80533780530372</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T98"/>
+  <dimension ref="A1:T99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6738,6 +6738,70 @@
         <v>40.80533780530372</v>
       </c>
     </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-21</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>76</v>
+      </c>
+      <c r="C99" t="n">
+        <v>178</v>
+      </c>
+      <c r="D99" t="n">
+        <v>18</v>
+      </c>
+      <c r="E99" t="n">
+        <v>53</v>
+      </c>
+      <c r="F99" t="n">
+        <v>104</v>
+      </c>
+      <c r="G99" t="n">
+        <v>34</v>
+      </c>
+      <c r="H99" t="n">
+        <v>23</v>
+      </c>
+      <c r="I99" t="n">
+        <v>50</v>
+      </c>
+      <c r="J99" t="n">
+        <v>25</v>
+      </c>
+      <c r="K99" t="n">
+        <v>256</v>
+      </c>
+      <c r="L99" t="n">
+        <v>57</v>
+      </c>
+      <c r="M99" t="n">
+        <v>61</v>
+      </c>
+      <c r="N99" t="n">
+        <v>37</v>
+      </c>
+      <c r="O99" t="n">
+        <v>43.99432942397628</v>
+      </c>
+      <c r="P99" t="n">
+        <v>1.56199086125</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>13.68396203895895</v>
+      </c>
+      <c r="R99" t="n">
+        <v>6.168724279835391</v>
+      </c>
+      <c r="S99" t="n">
+        <v>28</v>
+      </c>
+      <c r="T99" t="n">
+        <v>41.10179181014655</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T99"/>
+  <dimension ref="A1:T100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6802,6 +6802,70 @@
         <v>41.10179181014655</v>
       </c>
     </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>78</v>
+      </c>
+      <c r="C100" t="n">
+        <v>179</v>
+      </c>
+      <c r="D100" t="n">
+        <v>24</v>
+      </c>
+      <c r="E100" t="n">
+        <v>50</v>
+      </c>
+      <c r="F100" t="n">
+        <v>103</v>
+      </c>
+      <c r="G100" t="n">
+        <v>31</v>
+      </c>
+      <c r="H100" t="n">
+        <v>21</v>
+      </c>
+      <c r="I100" t="n">
+        <v>46</v>
+      </c>
+      <c r="J100" t="n">
+        <v>26</v>
+      </c>
+      <c r="K100" t="n">
+        <v>256</v>
+      </c>
+      <c r="L100" t="n">
+        <v>59</v>
+      </c>
+      <c r="M100" t="n">
+        <v>64</v>
+      </c>
+      <c r="N100" t="n">
+        <v>35</v>
+      </c>
+      <c r="O100" t="n">
+        <v>44.10906388639658</v>
+      </c>
+      <c r="P100" t="n">
+        <v>1.33152218125</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>13.39840403106421</v>
+      </c>
+      <c r="R100" t="n">
+        <v>6.100823045267489</v>
+      </c>
+      <c r="S100" t="n">
+        <v>28.43601895734597</v>
+      </c>
+      <c r="T100" t="n">
+        <v>39.09722435126368</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T100"/>
+  <dimension ref="A1:T101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6866,6 +6866,70 @@
         <v>39.09722435126368</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-25</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>78</v>
+      </c>
+      <c r="C101" t="n">
+        <v>170</v>
+      </c>
+      <c r="D101" t="n">
+        <v>20</v>
+      </c>
+      <c r="E101" t="n">
+        <v>51</v>
+      </c>
+      <c r="F101" t="n">
+        <v>113</v>
+      </c>
+      <c r="G101" t="n">
+        <v>32</v>
+      </c>
+      <c r="H101" t="n">
+        <v>22</v>
+      </c>
+      <c r="I101" t="n">
+        <v>64</v>
+      </c>
+      <c r="J101" t="n">
+        <v>23</v>
+      </c>
+      <c r="K101" t="n">
+        <v>247</v>
+      </c>
+      <c r="L101" t="n">
+        <v>57</v>
+      </c>
+      <c r="M101" t="n">
+        <v>64</v>
+      </c>
+      <c r="N101" t="n">
+        <v>31</v>
+      </c>
+      <c r="O101" t="n">
+        <v>44.23478083945633</v>
+      </c>
+      <c r="P101" t="n">
+        <v>1.8602250825</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>13.20715055556965</v>
+      </c>
+      <c r="R101" t="n">
+        <v>6.205761316872428</v>
+      </c>
+      <c r="S101" t="n">
+        <v>26.30331753554502</v>
+      </c>
+      <c r="T101" t="n">
+        <v>41.66788810588862</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T101"/>
+  <dimension ref="A1:T102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6930,6 +6930,70 @@
         <v>41.66788810588862</v>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-27</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>76</v>
+      </c>
+      <c r="C102" t="n">
+        <v>181</v>
+      </c>
+      <c r="D102" t="n">
+        <v>19</v>
+      </c>
+      <c r="E102" t="n">
+        <v>50</v>
+      </c>
+      <c r="F102" t="n">
+        <v>106</v>
+      </c>
+      <c r="G102" t="n">
+        <v>36</v>
+      </c>
+      <c r="H102" t="n">
+        <v>21</v>
+      </c>
+      <c r="I102" t="n">
+        <v>61</v>
+      </c>
+      <c r="J102" t="n">
+        <v>25</v>
+      </c>
+      <c r="K102" t="n">
+        <v>237</v>
+      </c>
+      <c r="L102" t="n">
+        <v>64</v>
+      </c>
+      <c r="M102" t="n">
+        <v>67</v>
+      </c>
+      <c r="N102" t="n">
+        <v>35</v>
+      </c>
+      <c r="O102" t="n">
+        <v>43.96878639390299</v>
+      </c>
+      <c r="P102" t="n">
+        <v>1.76879615</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>12.73215965212138</v>
+      </c>
+      <c r="R102" t="n">
+        <v>6.151329243353783</v>
+      </c>
+      <c r="S102" t="n">
+        <v>29.38388625592417</v>
+      </c>
+      <c r="T102" t="n">
+        <v>40.96064316395316</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T102"/>
+  <dimension ref="A1:T103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6994,6 +6994,70 @@
         <v>40.96064316395316</v>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-29</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>79</v>
+      </c>
+      <c r="C103" t="n">
+        <v>177</v>
+      </c>
+      <c r="D103" t="n">
+        <v>18</v>
+      </c>
+      <c r="E103" t="n">
+        <v>52</v>
+      </c>
+      <c r="F103" t="n">
+        <v>104</v>
+      </c>
+      <c r="G103" t="n">
+        <v>36</v>
+      </c>
+      <c r="H103" t="n">
+        <v>19</v>
+      </c>
+      <c r="I103" t="n">
+        <v>61</v>
+      </c>
+      <c r="J103" t="n">
+        <v>20</v>
+      </c>
+      <c r="K103" t="n">
+        <v>247</v>
+      </c>
+      <c r="L103" t="n">
+        <v>61</v>
+      </c>
+      <c r="M103" t="n">
+        <v>62</v>
+      </c>
+      <c r="N103" t="n">
+        <v>34</v>
+      </c>
+      <c r="O103" t="n">
+        <v>46.12131280840905</v>
+      </c>
+      <c r="P103" t="n">
+        <v>1.73680592125</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>12.69641193763862</v>
+      </c>
+      <c r="R103" t="n">
+        <v>6.004123711340206</v>
+      </c>
+      <c r="S103" t="n">
+        <v>27.18676122931442</v>
+      </c>
+      <c r="T103" t="n">
+        <v>39.90926125623228</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T103"/>
+  <dimension ref="A1:T104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7058,6 +7058,70 @@
         <v>39.90926125623228</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-03</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>85</v>
+      </c>
+      <c r="C104" t="n">
+        <v>200</v>
+      </c>
+      <c r="D104" t="n">
+        <v>15</v>
+      </c>
+      <c r="E104" t="n">
+        <v>55</v>
+      </c>
+      <c r="F104" t="n">
+        <v>85</v>
+      </c>
+      <c r="G104" t="n">
+        <v>27</v>
+      </c>
+      <c r="H104" t="n">
+        <v>18</v>
+      </c>
+      <c r="I104" t="n">
+        <v>47</v>
+      </c>
+      <c r="J104" t="n">
+        <v>21</v>
+      </c>
+      <c r="K104" t="n">
+        <v>249</v>
+      </c>
+      <c r="L104" t="n">
+        <v>65</v>
+      </c>
+      <c r="M104" t="n">
+        <v>68</v>
+      </c>
+      <c r="N104" t="n">
+        <v>35</v>
+      </c>
+      <c r="O104" t="n">
+        <v>46.21827426197266</v>
+      </c>
+      <c r="P104" t="n">
+        <v>1.60782326875</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>14.89920430818357</v>
+      </c>
+      <c r="R104" t="n">
+        <v>5.812371134020618</v>
+      </c>
+      <c r="S104" t="n">
+        <v>29.0167865707434</v>
+      </c>
+      <c r="T104" t="n">
+        <v>36.05743155343972</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T104"/>
+  <dimension ref="A1:T105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7122,6 +7122,70 @@
         <v>36.05743155343972</v>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-05</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>86</v>
+      </c>
+      <c r="C105" t="n">
+        <v>196</v>
+      </c>
+      <c r="D105" t="n">
+        <v>14</v>
+      </c>
+      <c r="E105" t="n">
+        <v>56</v>
+      </c>
+      <c r="F105" t="n">
+        <v>86</v>
+      </c>
+      <c r="G105" t="n">
+        <v>34</v>
+      </c>
+      <c r="H105" t="n">
+        <v>17</v>
+      </c>
+      <c r="I105" t="n">
+        <v>31</v>
+      </c>
+      <c r="J105" t="n">
+        <v>28</v>
+      </c>
+      <c r="K105" t="n">
+        <v>265</v>
+      </c>
+      <c r="L105" t="n">
+        <v>69</v>
+      </c>
+      <c r="M105" t="n">
+        <v>69</v>
+      </c>
+      <c r="N105" t="n">
+        <v>27</v>
+      </c>
+      <c r="O105" t="n">
+        <v>46.47195468946097</v>
+      </c>
+      <c r="P105" t="n">
+        <v>0.9876291362499999</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>14.705977968005</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5.773006134969325</v>
+      </c>
+      <c r="S105" t="n">
+        <v>29.52380952380953</v>
+      </c>
+      <c r="T105" t="n">
+        <v>36.22605469339432</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T105"/>
+  <dimension ref="A1:T106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7186,6 +7186,70 @@
         <v>36.22605469339432</v>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>88</v>
+      </c>
+      <c r="C106" t="n">
+        <v>168</v>
+      </c>
+      <c r="D106" t="n">
+        <v>17</v>
+      </c>
+      <c r="E106" t="n">
+        <v>54</v>
+      </c>
+      <c r="F106" t="n">
+        <v>113</v>
+      </c>
+      <c r="G106" t="n">
+        <v>34</v>
+      </c>
+      <c r="H106" t="n">
+        <v>18</v>
+      </c>
+      <c r="I106" t="n">
+        <v>48</v>
+      </c>
+      <c r="J106" t="n">
+        <v>26</v>
+      </c>
+      <c r="K106" t="n">
+        <v>266</v>
+      </c>
+      <c r="L106" t="n">
+        <v>67</v>
+      </c>
+      <c r="M106" t="n">
+        <v>64</v>
+      </c>
+      <c r="N106" t="n">
+        <v>21</v>
+      </c>
+      <c r="O106" t="n">
+        <v>45.92170124883314</v>
+      </c>
+      <c r="P106" t="n">
+        <v>1.30619261875</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>12.31776831738</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5.788617886178862</v>
+      </c>
+      <c r="S106" t="n">
+        <v>26.63551401869159</v>
+      </c>
+      <c r="T106" t="n">
+        <v>39.53648352409793</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T106"/>
+  <dimension ref="A1:T107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7250,6 +7250,70 @@
         <v>39.53648352409793</v>
       </c>
     </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-12</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>91</v>
+      </c>
+      <c r="C107" t="n">
+        <v>189</v>
+      </c>
+      <c r="D107" t="n">
+        <v>13</v>
+      </c>
+      <c r="E107" t="n">
+        <v>49</v>
+      </c>
+      <c r="F107" t="n">
+        <v>85</v>
+      </c>
+      <c r="G107" t="n">
+        <v>40</v>
+      </c>
+      <c r="H107" t="n">
+        <v>18</v>
+      </c>
+      <c r="I107" t="n">
+        <v>42</v>
+      </c>
+      <c r="J107" t="n">
+        <v>22</v>
+      </c>
+      <c r="K107" t="n">
+        <v>260</v>
+      </c>
+      <c r="L107" t="n">
+        <v>65</v>
+      </c>
+      <c r="M107" t="n">
+        <v>68</v>
+      </c>
+      <c r="N107" t="n">
+        <v>28</v>
+      </c>
+      <c r="O107" t="n">
+        <v>46.47361222799612</v>
+      </c>
+      <c r="P107" t="n">
+        <v>1.18395610125</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>13.95548409309429</v>
+      </c>
+      <c r="R107" t="n">
+        <v>5.569072164948453</v>
+      </c>
+      <c r="S107" t="n">
+        <v>27.57793764988009</v>
+      </c>
+      <c r="T107" t="n">
+        <v>35.76781139759191</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T107"/>
+  <dimension ref="A1:T108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7314,6 +7314,70 @@
         <v>35.76781139759191</v>
       </c>
     </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-15</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>92</v>
+      </c>
+      <c r="C108" t="n">
+        <v>170</v>
+      </c>
+      <c r="D108" t="n">
+        <v>13</v>
+      </c>
+      <c r="E108" t="n">
+        <v>49</v>
+      </c>
+      <c r="F108" t="n">
+        <v>107</v>
+      </c>
+      <c r="G108" t="n">
+        <v>35</v>
+      </c>
+      <c r="H108" t="n">
+        <v>19</v>
+      </c>
+      <c r="I108" t="n">
+        <v>52</v>
+      </c>
+      <c r="J108" t="n">
+        <v>23</v>
+      </c>
+      <c r="K108" t="n">
+        <v>256</v>
+      </c>
+      <c r="L108" t="n">
+        <v>64</v>
+      </c>
+      <c r="M108" t="n">
+        <v>65</v>
+      </c>
+      <c r="N108" t="n">
+        <v>25</v>
+      </c>
+      <c r="O108" t="n">
+        <v>46.53940759592795</v>
+      </c>
+      <c r="P108" t="n">
+        <v>1.5049766975</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>10.56294790077286</v>
+      </c>
+      <c r="R108" t="n">
+        <v>5.546391752577319</v>
+      </c>
+      <c r="S108" t="n">
+        <v>26.66666666666667</v>
+      </c>
+      <c r="T108" t="n">
+        <v>38.72840124641737</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T108"/>
+  <dimension ref="A1:T109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7378,6 +7378,70 @@
         <v>38.72840124641737</v>
       </c>
     </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-16</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>93</v>
+      </c>
+      <c r="C109" t="n">
+        <v>170</v>
+      </c>
+      <c r="D109" t="n">
+        <v>13</v>
+      </c>
+      <c r="E109" t="n">
+        <v>50</v>
+      </c>
+      <c r="F109" t="n">
+        <v>106</v>
+      </c>
+      <c r="G109" t="n">
+        <v>34</v>
+      </c>
+      <c r="H109" t="n">
+        <v>19</v>
+      </c>
+      <c r="I109" t="n">
+        <v>51</v>
+      </c>
+      <c r="J109" t="n">
+        <v>23</v>
+      </c>
+      <c r="K109" t="n">
+        <v>254</v>
+      </c>
+      <c r="L109" t="n">
+        <v>65</v>
+      </c>
+      <c r="M109" t="n">
+        <v>65</v>
+      </c>
+      <c r="N109" t="n">
+        <v>27</v>
+      </c>
+      <c r="O109" t="n">
+        <v>64.53583730272781</v>
+      </c>
+      <c r="P109" t="n">
+        <v>1.47736694875</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>10.61174596538</v>
+      </c>
+      <c r="R109" t="n">
+        <v>5.439175257731959</v>
+      </c>
+      <c r="S109" t="n">
+        <v>27.38095238095238</v>
+      </c>
+      <c r="T109" t="n">
+        <v>38.32159710117634</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T109"/>
+  <dimension ref="A1:T110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7442,6 +7442,70 @@
         <v>38.32159710117634</v>
       </c>
     </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-18</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>92</v>
+      </c>
+      <c r="C110" t="n">
+        <v>185</v>
+      </c>
+      <c r="D110" t="n">
+        <v>12</v>
+      </c>
+      <c r="E110" t="n">
+        <v>55</v>
+      </c>
+      <c r="F110" t="n">
+        <v>84</v>
+      </c>
+      <c r="G110" t="n">
+        <v>35</v>
+      </c>
+      <c r="H110" t="n">
+        <v>20</v>
+      </c>
+      <c r="I110" t="n">
+        <v>51</v>
+      </c>
+      <c r="J110" t="n">
+        <v>19</v>
+      </c>
+      <c r="K110" t="n">
+        <v>252</v>
+      </c>
+      <c r="L110" t="n">
+        <v>64</v>
+      </c>
+      <c r="M110" t="n">
+        <v>72</v>
+      </c>
+      <c r="N110" t="n">
+        <v>25</v>
+      </c>
+      <c r="O110" t="n">
+        <v>63.42535468822609</v>
+      </c>
+      <c r="P110" t="n">
+        <v>1.5944216425</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>12.56010360863</v>
+      </c>
+      <c r="R110" t="n">
+        <v>5.447204968944099</v>
+      </c>
+      <c r="S110" t="n">
+        <v>26.27737226277372</v>
+      </c>
+      <c r="T110" t="n">
+        <v>35.59699359257341</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T110"/>
+  <dimension ref="A1:T111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7506,6 +7506,70 @@
         <v>35.59699359257341</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-19</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>94</v>
+      </c>
+      <c r="C111" t="n">
+        <v>182</v>
+      </c>
+      <c r="D111" t="n">
+        <v>12</v>
+      </c>
+      <c r="E111" t="n">
+        <v>57</v>
+      </c>
+      <c r="F111" t="n">
+        <v>85</v>
+      </c>
+      <c r="G111" t="n">
+        <v>34</v>
+      </c>
+      <c r="H111" t="n">
+        <v>19</v>
+      </c>
+      <c r="I111" t="n">
+        <v>50</v>
+      </c>
+      <c r="J111" t="n">
+        <v>20</v>
+      </c>
+      <c r="K111" t="n">
+        <v>252</v>
+      </c>
+      <c r="L111" t="n">
+        <v>60</v>
+      </c>
+      <c r="M111" t="n">
+        <v>73</v>
+      </c>
+      <c r="N111" t="n">
+        <v>28</v>
+      </c>
+      <c r="O111" t="n">
+        <v>64.06115546651702</v>
+      </c>
+      <c r="P111" t="n">
+        <v>1.646821115</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>14.10721491577286</v>
+      </c>
+      <c r="R111" t="n">
+        <v>5.426501035196687</v>
+      </c>
+      <c r="S111" t="n">
+        <v>26.34146341463415</v>
+      </c>
+      <c r="T111" t="n">
+        <v>35.11600524533407</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T111"/>
+  <dimension ref="A1:T112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7570,6 +7570,70 @@
         <v>35.11600524533407</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>93</v>
+      </c>
+      <c r="C112" t="n">
+        <v>167</v>
+      </c>
+      <c r="D112" t="n">
+        <v>12</v>
+      </c>
+      <c r="E112" t="n">
+        <v>57</v>
+      </c>
+      <c r="F112" t="n">
+        <v>103</v>
+      </c>
+      <c r="G112" t="n">
+        <v>32</v>
+      </c>
+      <c r="H112" t="n">
+        <v>19</v>
+      </c>
+      <c r="I112" t="n">
+        <v>61</v>
+      </c>
+      <c r="J112" t="n">
+        <v>20</v>
+      </c>
+      <c r="K112" t="n">
+        <v>245</v>
+      </c>
+      <c r="L112" t="n">
+        <v>62</v>
+      </c>
+      <c r="M112" t="n">
+        <v>71</v>
+      </c>
+      <c r="N112" t="n">
+        <v>24</v>
+      </c>
+      <c r="O112" t="n">
+        <v>63.63447278687048</v>
+      </c>
+      <c r="P112" t="n">
+        <v>1.93182073875</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>11.96574428452286</v>
+      </c>
+      <c r="R112" t="n">
+        <v>5.409937888198757</v>
+      </c>
+      <c r="S112" t="n">
+        <v>25.72815533980582</v>
+      </c>
+      <c r="T112" t="n">
+        <v>37.87460442850003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T112"/>
+  <dimension ref="A1:T113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7634,6 +7634,70 @@
         <v>37.87460442850003</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-26</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>103</v>
+      </c>
+      <c r="C113" t="n">
+        <v>189</v>
+      </c>
+      <c r="D113" t="n">
+        <v>12</v>
+      </c>
+      <c r="E113" t="n">
+        <v>58</v>
+      </c>
+      <c r="F113" t="n">
+        <v>82</v>
+      </c>
+      <c r="G113" t="n">
+        <v>16</v>
+      </c>
+      <c r="H113" t="n">
+        <v>19</v>
+      </c>
+      <c r="I113" t="n">
+        <v>45</v>
+      </c>
+      <c r="J113" t="n">
+        <v>19</v>
+      </c>
+      <c r="K113" t="n">
+        <v>250</v>
+      </c>
+      <c r="L113" t="n">
+        <v>56</v>
+      </c>
+      <c r="M113" t="n">
+        <v>77</v>
+      </c>
+      <c r="N113" t="n">
+        <v>32</v>
+      </c>
+      <c r="O113" t="n">
+        <v>64.47132591506451</v>
+      </c>
+      <c r="P113" t="n">
+        <v>1.960777526875</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>13.06255059794964</v>
+      </c>
+      <c r="R113" t="n">
+        <v>5.25678496868476</v>
+      </c>
+      <c r="S113" t="n">
+        <v>26.61691542288557</v>
+      </c>
+      <c r="T113" t="n">
+        <v>32.76045974740796</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T113"/>
+  <dimension ref="A1:T114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7698,6 +7698,70 @@
         <v>32.76045974740796</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-30</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>99</v>
+      </c>
+      <c r="C114" t="n">
+        <v>175</v>
+      </c>
+      <c r="D114" t="n">
+        <v>36</v>
+      </c>
+      <c r="E114" t="n">
+        <v>55</v>
+      </c>
+      <c r="F114" t="n">
+        <v>99</v>
+      </c>
+      <c r="G114" t="n">
+        <v>23</v>
+      </c>
+      <c r="H114" t="n">
+        <v>19</v>
+      </c>
+      <c r="I114" t="n">
+        <v>35</v>
+      </c>
+      <c r="J114" t="n">
+        <v>26</v>
+      </c>
+      <c r="K114" t="n">
+        <v>295</v>
+      </c>
+      <c r="L114" t="n">
+        <v>64</v>
+      </c>
+      <c r="M114" t="n">
+        <v>63</v>
+      </c>
+      <c r="N114" t="n">
+        <v>23</v>
+      </c>
+      <c r="O114" t="n">
+        <v>62.60392192159907</v>
+      </c>
+      <c r="P114" t="n">
+        <v>1.48927869625</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>12.21496281334178</v>
+      </c>
+      <c r="R114" t="n">
+        <v>4.966403162055336</v>
+      </c>
+      <c r="S114" t="n">
+        <v>25.5079006772009</v>
+      </c>
+      <c r="T114" t="n">
+        <v>31.69855699605464</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T114"/>
+  <dimension ref="A1:T115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7762,6 +7762,70 @@
         <v>31.69855699605464</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-02</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>101</v>
+      </c>
+      <c r="C115" t="n">
+        <v>189</v>
+      </c>
+      <c r="D115" t="n">
+        <v>24</v>
+      </c>
+      <c r="E115" t="n">
+        <v>55</v>
+      </c>
+      <c r="F115" t="n">
+        <v>78</v>
+      </c>
+      <c r="G115" t="n">
+        <v>35</v>
+      </c>
+      <c r="H115" t="n">
+        <v>21</v>
+      </c>
+      <c r="I115" t="n">
+        <v>42</v>
+      </c>
+      <c r="J115" t="n">
+        <v>18</v>
+      </c>
+      <c r="K115" t="n">
+        <v>282</v>
+      </c>
+      <c r="L115" t="n">
+        <v>67</v>
+      </c>
+      <c r="M115" t="n">
+        <v>65</v>
+      </c>
+      <c r="N115" t="n">
+        <v>29</v>
+      </c>
+      <c r="O115" t="n">
+        <v>61.55425959418717</v>
+      </c>
+      <c r="P115" t="n">
+        <v>1.53395333875</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>14.21294511905607</v>
+      </c>
+      <c r="R115" t="n">
+        <v>5.035785288270378</v>
+      </c>
+      <c r="S115" t="n">
+        <v>26.02739726027397</v>
+      </c>
+      <c r="T115" t="n">
+        <v>31.40830361622939</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T115"/>
+  <dimension ref="A1:T116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7826,6 +7826,70 @@
         <v>31.40830361622939</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-06</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>100</v>
+      </c>
+      <c r="C116" t="n">
+        <v>147</v>
+      </c>
+      <c r="D116" t="n">
+        <v>26</v>
+      </c>
+      <c r="E116" t="n">
+        <v>75</v>
+      </c>
+      <c r="F116" t="n">
+        <v>102</v>
+      </c>
+      <c r="G116" t="n">
+        <v>40</v>
+      </c>
+      <c r="H116" t="n">
+        <v>18</v>
+      </c>
+      <c r="I116" t="n">
+        <v>55</v>
+      </c>
+      <c r="J116" t="n">
+        <v>20</v>
+      </c>
+      <c r="K116" t="n">
+        <v>237</v>
+      </c>
+      <c r="L116" t="n">
+        <v>58</v>
+      </c>
+      <c r="M116" t="n">
+        <v>121</v>
+      </c>
+      <c r="N116" t="n">
+        <v>17</v>
+      </c>
+      <c r="O116" t="n">
+        <v>60.00715247427378</v>
+      </c>
+      <c r="P116" t="n">
+        <v>1.58894376375</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>10.73694217469</v>
+      </c>
+      <c r="R116" t="n">
+        <v>4.868110236220472</v>
+      </c>
+      <c r="S116" t="n">
+        <v>24.54780361757106</v>
+      </c>
+      <c r="T116" t="n">
+        <v>33.57544915721027</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T116"/>
+  <dimension ref="A1:T117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7890,6 +7890,70 @@
         <v>33.57544915721027</v>
       </c>
     </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-08</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>102</v>
+      </c>
+      <c r="C117" t="n">
+        <v>166</v>
+      </c>
+      <c r="D117" t="n">
+        <v>24</v>
+      </c>
+      <c r="E117" t="n">
+        <v>76</v>
+      </c>
+      <c r="F117" t="n">
+        <v>80</v>
+      </c>
+      <c r="G117" t="n">
+        <v>42</v>
+      </c>
+      <c r="H117" t="n">
+        <v>17</v>
+      </c>
+      <c r="I117" t="n">
+        <v>53</v>
+      </c>
+      <c r="J117" t="n">
+        <v>22</v>
+      </c>
+      <c r="K117" t="n">
+        <v>235</v>
+      </c>
+      <c r="L117" t="n">
+        <v>52</v>
+      </c>
+      <c r="M117" t="n">
+        <v>125</v>
+      </c>
+      <c r="N117" t="n">
+        <v>20</v>
+      </c>
+      <c r="O117" t="n">
+        <v>60.02201216786759</v>
+      </c>
+      <c r="P117" t="n">
+        <v>1.58730828625</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>12.98840451245786</v>
+      </c>
+      <c r="R117" t="n">
+        <v>4.77120315581854</v>
+      </c>
+      <c r="S117" t="n">
+        <v>24.60732984293194</v>
+      </c>
+      <c r="T117" t="n">
+        <v>30.08181368713555</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T117"/>
+  <dimension ref="A1:T118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7954,6 +7954,70 @@
         <v>30.08181368713555</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-09</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>101</v>
+      </c>
+      <c r="C118" t="n">
+        <v>167</v>
+      </c>
+      <c r="D118" t="n">
+        <v>24</v>
+      </c>
+      <c r="E118" t="n">
+        <v>78</v>
+      </c>
+      <c r="F118" t="n">
+        <v>77</v>
+      </c>
+      <c r="G118" t="n">
+        <v>42</v>
+      </c>
+      <c r="H118" t="n">
+        <v>18</v>
+      </c>
+      <c r="I118" t="n">
+        <v>54</v>
+      </c>
+      <c r="J118" t="n">
+        <v>23</v>
+      </c>
+      <c r="K118" t="n">
+        <v>235</v>
+      </c>
+      <c r="L118" t="n">
+        <v>51</v>
+      </c>
+      <c r="M118" t="n">
+        <v>125</v>
+      </c>
+      <c r="N118" t="n">
+        <v>19</v>
+      </c>
+      <c r="O118" t="n">
+        <v>60.12565953975592</v>
+      </c>
+      <c r="P118" t="n">
+        <v>1.59615186625</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>13.057603195315</v>
+      </c>
+      <c r="R118" t="n">
+        <v>4.739644970414201</v>
+      </c>
+      <c r="S118" t="n">
+        <v>24.34554973821989</v>
+      </c>
+      <c r="T118" t="n">
+        <v>30.00845976639916</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T118"/>
+  <dimension ref="A1:T119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8018,6 +8018,70 @@
         <v>30.00845976639916</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-13</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>99</v>
+      </c>
+      <c r="C119" t="n">
+        <v>148</v>
+      </c>
+      <c r="D119" t="n">
+        <v>29</v>
+      </c>
+      <c r="E119" t="n">
+        <v>74</v>
+      </c>
+      <c r="F119" t="n">
+        <v>105</v>
+      </c>
+      <c r="G119" t="n">
+        <v>40</v>
+      </c>
+      <c r="H119" t="n">
+        <v>18</v>
+      </c>
+      <c r="I119" t="n">
+        <v>55</v>
+      </c>
+      <c r="J119" t="n">
+        <v>19</v>
+      </c>
+      <c r="K119" t="n">
+        <v>248</v>
+      </c>
+      <c r="L119" t="n">
+        <v>55</v>
+      </c>
+      <c r="M119" t="n">
+        <v>121</v>
+      </c>
+      <c r="N119" t="n">
+        <v>15</v>
+      </c>
+      <c r="O119" t="n">
+        <v>60.3213541771514</v>
+      </c>
+      <c r="P119" t="n">
+        <v>1.8190501425</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>11.10304985594</v>
+      </c>
+      <c r="R119" t="n">
+        <v>4.662768031189084</v>
+      </c>
+      <c r="S119" t="n">
+        <v>22.70408163265306</v>
+      </c>
+      <c r="T119" t="n">
+        <v>33.7411354943911</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T119"/>
+  <dimension ref="A1:T120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8082,6 +8082,70 @@
         <v>33.7411354943911</v>
       </c>
     </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-15</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>103</v>
+      </c>
+      <c r="C120" t="n">
+        <v>171</v>
+      </c>
+      <c r="D120" t="n">
+        <v>29</v>
+      </c>
+      <c r="E120" t="n">
+        <v>72</v>
+      </c>
+      <c r="F120" t="n">
+        <v>81</v>
+      </c>
+      <c r="G120" t="n">
+        <v>40</v>
+      </c>
+      <c r="H120" t="n">
+        <v>17</v>
+      </c>
+      <c r="I120" t="n">
+        <v>48</v>
+      </c>
+      <c r="J120" t="n">
+        <v>19</v>
+      </c>
+      <c r="K120" t="n">
+        <v>253</v>
+      </c>
+      <c r="L120" t="n">
+        <v>51</v>
+      </c>
+      <c r="M120" t="n">
+        <v>125</v>
+      </c>
+      <c r="N120" t="n">
+        <v>17</v>
+      </c>
+      <c r="O120" t="n">
+        <v>60.63032608502557</v>
+      </c>
+      <c r="P120" t="n">
+        <v>1.3824083975</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>13.45335288754714</v>
+      </c>
+      <c r="R120" t="n">
+        <v>4.541910331384016</v>
+      </c>
+      <c r="S120" t="n">
+        <v>22.42268041237114</v>
+      </c>
+      <c r="T120" t="n">
+        <v>29.17930150467215</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T120"/>
+  <dimension ref="A1:T121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8146,6 +8146,70 @@
         <v>29.17930150467215</v>
       </c>
     </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-16</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>104</v>
+      </c>
+      <c r="C121" t="n">
+        <v>173</v>
+      </c>
+      <c r="D121" t="n">
+        <v>27</v>
+      </c>
+      <c r="E121" t="n">
+        <v>70</v>
+      </c>
+      <c r="F121" t="n">
+        <v>77</v>
+      </c>
+      <c r="G121" t="n">
+        <v>45</v>
+      </c>
+      <c r="H121" t="n">
+        <v>17</v>
+      </c>
+      <c r="I121" t="n">
+        <v>52</v>
+      </c>
+      <c r="J121" t="n">
+        <v>15</v>
+      </c>
+      <c r="K121" t="n">
+        <v>247</v>
+      </c>
+      <c r="L121" t="n">
+        <v>45</v>
+      </c>
+      <c r="M121" t="n">
+        <v>130</v>
+      </c>
+      <c r="N121" t="n">
+        <v>24</v>
+      </c>
+      <c r="O121" t="n">
+        <v>59.87653765634351</v>
+      </c>
+      <c r="P121" t="n">
+        <v>1.41978207125</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>13.58129006683285</v>
+      </c>
+      <c r="R121" t="n">
+        <v>4.536062378167641</v>
+      </c>
+      <c r="S121" t="n">
+        <v>21.93211488250653</v>
+      </c>
+      <c r="T121" t="n">
+        <v>29.06895901513665</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T121"/>
+  <dimension ref="A1:T122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8210,6 +8210,70 @@
         <v>29.06895901513665</v>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-20</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>105</v>
+      </c>
+      <c r="C122" t="n">
+        <v>152</v>
+      </c>
+      <c r="D122" t="n">
+        <v>27</v>
+      </c>
+      <c r="E122" t="n">
+        <v>67</v>
+      </c>
+      <c r="F122" t="n">
+        <v>103</v>
+      </c>
+      <c r="G122" t="n">
+        <v>45</v>
+      </c>
+      <c r="H122" t="n">
+        <v>17</v>
+      </c>
+      <c r="I122" t="n">
+        <v>51</v>
+      </c>
+      <c r="J122" t="n">
+        <v>23</v>
+      </c>
+      <c r="K122" t="n">
+        <v>247</v>
+      </c>
+      <c r="L122" t="n">
+        <v>45</v>
+      </c>
+      <c r="M122" t="n">
+        <v>122</v>
+      </c>
+      <c r="N122" t="n">
+        <v>28</v>
+      </c>
+      <c r="O122" t="n">
+        <v>60.60958467815942</v>
+      </c>
+      <c r="P122" t="n">
+        <v>1.39101113375</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>11.28982241951143</v>
+      </c>
+      <c r="R122" t="n">
+        <v>4.503875968992248</v>
+      </c>
+      <c r="S122" t="n">
+        <v>24.36548223350254</v>
+      </c>
+      <c r="T122" t="n">
+        <v>32.65475892239525</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T122"/>
+  <dimension ref="A1:T123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8274,6 +8274,70 @@
         <v>32.65475892239525</v>
       </c>
     </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>111</v>
+      </c>
+      <c r="C123" t="n">
+        <v>171</v>
+      </c>
+      <c r="D123" t="n">
+        <v>27</v>
+      </c>
+      <c r="E123" t="n">
+        <v>62</v>
+      </c>
+      <c r="F123" t="n">
+        <v>80</v>
+      </c>
+      <c r="G123" t="n">
+        <v>47</v>
+      </c>
+      <c r="H123" t="n">
+        <v>17</v>
+      </c>
+      <c r="I123" t="n">
+        <v>44</v>
+      </c>
+      <c r="J123" t="n">
+        <v>26</v>
+      </c>
+      <c r="K123" t="n">
+        <v>257</v>
+      </c>
+      <c r="L123" t="n">
+        <v>41</v>
+      </c>
+      <c r="M123" t="n">
+        <v>125</v>
+      </c>
+      <c r="N123" t="n">
+        <v>22</v>
+      </c>
+      <c r="O123" t="n">
+        <v>58.49787632105821</v>
+      </c>
+      <c r="P123" t="n">
+        <v>1.20033156875</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>12.91768361790428</v>
+      </c>
+      <c r="R123" t="n">
+        <v>4.464077669902912</v>
+      </c>
+      <c r="S123" t="n">
+        <v>22.82051282051282</v>
+      </c>
+      <c r="T123" t="n">
+        <v>28.34990615096977</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T123"/>
+  <dimension ref="A1:T124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8338,6 +8338,70 @@
         <v>28.34990615096977</v>
       </c>
     </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>117</v>
+      </c>
+      <c r="C124" t="n">
+        <v>168</v>
+      </c>
+      <c r="D124" t="n">
+        <v>22</v>
+      </c>
+      <c r="E124" t="n">
+        <v>67</v>
+      </c>
+      <c r="F124" t="n">
+        <v>76</v>
+      </c>
+      <c r="G124" t="n">
+        <v>43</v>
+      </c>
+      <c r="H124" t="n">
+        <v>17</v>
+      </c>
+      <c r="I124" t="n">
+        <v>43</v>
+      </c>
+      <c r="J124" t="n">
+        <v>20</v>
+      </c>
+      <c r="K124" t="n">
+        <v>244</v>
+      </c>
+      <c r="L124" t="n">
+        <v>48</v>
+      </c>
+      <c r="M124" t="n">
+        <v>132</v>
+      </c>
+      <c r="N124" t="n">
+        <v>23</v>
+      </c>
+      <c r="O124" t="n">
+        <v>57.76023047789651</v>
+      </c>
+      <c r="P124" t="n">
+        <v>1.42151991125</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>13.25075054995875</v>
+      </c>
+      <c r="R124" t="n">
+        <v>4.415686274509804</v>
+      </c>
+      <c r="S124" t="n">
+        <v>24.07407407407407</v>
+      </c>
+      <c r="T124" t="n">
+        <v>27.44900066848029</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T124"/>
+  <dimension ref="A1:T125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8402,6 +8402,70 @@
         <v>27.44900066848029</v>
       </c>
     </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>117</v>
+      </c>
+      <c r="C125" t="n">
+        <v>176</v>
+      </c>
+      <c r="D125" t="n">
+        <v>24</v>
+      </c>
+      <c r="E125" t="n">
+        <v>68</v>
+      </c>
+      <c r="F125" t="n">
+        <v>66</v>
+      </c>
+      <c r="G125" t="n">
+        <v>40</v>
+      </c>
+      <c r="H125" t="n">
+        <v>19</v>
+      </c>
+      <c r="I125" t="n">
+        <v>35</v>
+      </c>
+      <c r="J125" t="n">
+        <v>22</v>
+      </c>
+      <c r="K125" t="n">
+        <v>252</v>
+      </c>
+      <c r="L125" t="n">
+        <v>53</v>
+      </c>
+      <c r="M125" t="n">
+        <v>130</v>
+      </c>
+      <c r="N125" t="n">
+        <v>18</v>
+      </c>
+      <c r="O125" t="n">
+        <v>59.49287654349983</v>
+      </c>
+      <c r="P125" t="n">
+        <v>1.18609946125</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>13.26826247549447</v>
+      </c>
+      <c r="R125" t="n">
+        <v>4.349019607843137</v>
+      </c>
+      <c r="S125" t="n">
+        <v>24.47368421052632</v>
+      </c>
+      <c r="T125" t="n">
+        <v>26.29683251170788</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T125"/>
+  <dimension ref="A1:T126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8466,6 +8466,70 @@
         <v>26.29683251170788</v>
       </c>
     </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>123</v>
+      </c>
+      <c r="C126" t="n">
+        <v>165</v>
+      </c>
+      <c r="D126" t="n">
+        <v>36</v>
+      </c>
+      <c r="E126" t="n">
+        <v>63</v>
+      </c>
+      <c r="F126" t="n">
+        <v>70</v>
+      </c>
+      <c r="G126" t="n">
+        <v>46</v>
+      </c>
+      <c r="H126" t="n">
+        <v>19</v>
+      </c>
+      <c r="I126" t="n">
+        <v>31</v>
+      </c>
+      <c r="J126" t="n">
+        <v>23</v>
+      </c>
+      <c r="K126" t="n">
+        <v>275</v>
+      </c>
+      <c r="L126" t="n">
+        <v>56</v>
+      </c>
+      <c r="M126" t="n">
+        <v>123</v>
+      </c>
+      <c r="N126" t="n">
+        <v>14</v>
+      </c>
+      <c r="O126" t="n">
+        <v>59.17484707116135</v>
+      </c>
+      <c r="P126" t="n">
+        <v>1.12493032</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>11.24143191326232</v>
+      </c>
+      <c r="R126" t="n">
+        <v>4.155172413793103</v>
+      </c>
+      <c r="S126" t="n">
+        <v>23.30827067669173</v>
+      </c>
+      <c r="T126" t="n">
+        <v>22.94213434760007</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T126"/>
+  <dimension ref="A1:T127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8530,6 +8530,70 @@
         <v>22.94213434760007</v>
       </c>
     </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>122</v>
+      </c>
+      <c r="C127" t="n">
+        <v>150</v>
+      </c>
+      <c r="D127" t="n">
+        <v>37</v>
+      </c>
+      <c r="E127" t="n">
+        <v>63</v>
+      </c>
+      <c r="F127" t="n">
+        <v>86</v>
+      </c>
+      <c r="G127" t="n">
+        <v>45</v>
+      </c>
+      <c r="H127" t="n">
+        <v>19</v>
+      </c>
+      <c r="I127" t="n">
+        <v>40</v>
+      </c>
+      <c r="J127" t="n">
+        <v>26</v>
+      </c>
+      <c r="K127" t="n">
+        <v>266</v>
+      </c>
+      <c r="L127" t="n">
+        <v>52</v>
+      </c>
+      <c r="M127" t="n">
+        <v>123</v>
+      </c>
+      <c r="N127" t="n">
+        <v>15</v>
+      </c>
+      <c r="O127" t="n">
+        <v>59.16085448604822</v>
+      </c>
+      <c r="P127" t="n">
+        <v>1.3785309925</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>9.625616387909998</v>
+      </c>
+      <c r="R127" t="n">
+        <v>4.061302681992337</v>
+      </c>
+      <c r="S127" t="n">
+        <v>23.30827067669173</v>
+      </c>
+      <c r="T127" t="n">
+        <v>24.37494899671572</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T127"/>
+  <dimension ref="A1:T128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8594,6 +8594,70 @@
         <v>24.37494899671572</v>
       </c>
     </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>120</v>
+      </c>
+      <c r="C128" t="n">
+        <v>151</v>
+      </c>
+      <c r="D128" t="n">
+        <v>40</v>
+      </c>
+      <c r="E128" t="n">
+        <v>61</v>
+      </c>
+      <c r="F128" t="n">
+        <v>83</v>
+      </c>
+      <c r="G128" t="n">
+        <v>46</v>
+      </c>
+      <c r="H128" t="n">
+        <v>19</v>
+      </c>
+      <c r="I128" t="n">
+        <v>43</v>
+      </c>
+      <c r="J128" t="n">
+        <v>26</v>
+      </c>
+      <c r="K128" t="n">
+        <v>274</v>
+      </c>
+      <c r="L128" t="n">
+        <v>49</v>
+      </c>
+      <c r="M128" t="n">
+        <v>115</v>
+      </c>
+      <c r="N128" t="n">
+        <v>13</v>
+      </c>
+      <c r="O128" t="n">
+        <v>59.24815872726934</v>
+      </c>
+      <c r="P128" t="n">
+        <v>1.22507809</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>10.36372128629803</v>
+      </c>
+      <c r="R128" t="n">
+        <v>4.092307692307692</v>
+      </c>
+      <c r="S128" t="n">
+        <v>21.7283950617284</v>
+      </c>
+      <c r="T128" t="n">
+        <v>23.5768581458622</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T128"/>
+  <dimension ref="A1:T129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8658,6 +8658,70 @@
         <v>23.5768581458622</v>
       </c>
     </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>120</v>
+      </c>
+      <c r="C129" t="n">
+        <v>177</v>
+      </c>
+      <c r="D129" t="n">
+        <v>32</v>
+      </c>
+      <c r="E129" t="n">
+        <v>64</v>
+      </c>
+      <c r="F129" t="n">
+        <v>74</v>
+      </c>
+      <c r="G129" t="n">
+        <v>34</v>
+      </c>
+      <c r="H129" t="n">
+        <v>18</v>
+      </c>
+      <c r="I129" t="n">
+        <v>53</v>
+      </c>
+      <c r="J129" t="n">
+        <v>24</v>
+      </c>
+      <c r="K129" t="n">
+        <v>252</v>
+      </c>
+      <c r="L129" t="n">
+        <v>46</v>
+      </c>
+      <c r="M129" t="n">
+        <v>123</v>
+      </c>
+      <c r="N129" t="n">
+        <v>21</v>
+      </c>
+      <c r="O129" t="n">
+        <v>56.33172486762187</v>
+      </c>
+      <c r="P129" t="n">
+        <v>1.5854540425</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>11.45800273391</v>
+      </c>
+      <c r="R129" t="n">
+        <v>4.15028901734104</v>
+      </c>
+      <c r="S129" t="n">
+        <v>22.97979797979798</v>
+      </c>
+      <c r="T129" t="n">
+        <v>25.19006039541473</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T129"/>
+  <dimension ref="A1:T130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8722,6 +8722,70 @@
         <v>25.19006039541473</v>
       </c>
     </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>75</v>
+      </c>
+      <c r="C130" t="n">
+        <v>160</v>
+      </c>
+      <c r="D130" t="n">
+        <v>36</v>
+      </c>
+      <c r="E130" t="n">
+        <v>108</v>
+      </c>
+      <c r="F130" t="n">
+        <v>90</v>
+      </c>
+      <c r="G130" t="n">
+        <v>36</v>
+      </c>
+      <c r="H130" t="n">
+        <v>18</v>
+      </c>
+      <c r="I130" t="n">
+        <v>57</v>
+      </c>
+      <c r="J130" t="n">
+        <v>26</v>
+      </c>
+      <c r="K130" t="n">
+        <v>253</v>
+      </c>
+      <c r="L130" t="n">
+        <v>46</v>
+      </c>
+      <c r="M130" t="n">
+        <v>115</v>
+      </c>
+      <c r="N130" t="n">
+        <v>26</v>
+      </c>
+      <c r="O130" t="n">
+        <v>57.14679761671484</v>
+      </c>
+      <c r="P130" t="n">
+        <v>1.5514248675</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>9.587302550226607</v>
+      </c>
+      <c r="R130" t="n">
+        <v>4.120458891013384</v>
+      </c>
+      <c r="S130" t="n">
+        <v>24.01960784313725</v>
+      </c>
+      <c r="T130" t="n">
+        <v>35.48990061964088</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T130"/>
+  <dimension ref="A1:T131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8786,6 +8786,70 @@
         <v>35.48990061964088</v>
       </c>
     </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>73</v>
+      </c>
+      <c r="C131" t="n">
+        <v>181</v>
+      </c>
+      <c r="D131" t="n">
+        <v>47</v>
+      </c>
+      <c r="E131" t="n">
+        <v>107</v>
+      </c>
+      <c r="F131" t="n">
+        <v>68</v>
+      </c>
+      <c r="G131" t="n">
+        <v>41</v>
+      </c>
+      <c r="H131" t="n">
+        <v>20</v>
+      </c>
+      <c r="I131" t="n">
+        <v>52</v>
+      </c>
+      <c r="J131" t="n">
+        <v>30</v>
+      </c>
+      <c r="K131" t="n">
+        <v>276</v>
+      </c>
+      <c r="L131" t="n">
+        <v>42</v>
+      </c>
+      <c r="M131" t="n">
+        <v>115</v>
+      </c>
+      <c r="N131" t="n">
+        <v>22</v>
+      </c>
+      <c r="O131" t="n">
+        <v>57.77516028533623</v>
+      </c>
+      <c r="P131" t="n">
+        <v>1.475280995</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>13.91173437206803</v>
+      </c>
+      <c r="R131" t="n">
+        <v>3.990689013035382</v>
+      </c>
+      <c r="S131" t="n">
+        <v>22.27488151658768</v>
+      </c>
+      <c r="T131" t="n">
+        <v>31.51429280478806</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T131"/>
+  <dimension ref="A1:T132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8850,6 +8850,70 @@
         <v>31.51429280478806</v>
       </c>
     </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-27</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>76</v>
+      </c>
+      <c r="C132" t="n">
+        <v>165</v>
+      </c>
+      <c r="D132" t="n">
+        <v>38</v>
+      </c>
+      <c r="E132" t="n">
+        <v>60</v>
+      </c>
+      <c r="F132" t="n">
+        <v>82</v>
+      </c>
+      <c r="G132" t="n">
+        <v>47</v>
+      </c>
+      <c r="H132" t="n">
+        <v>22</v>
+      </c>
+      <c r="I132" t="n">
+        <v>59</v>
+      </c>
+      <c r="J132" t="n">
+        <v>23</v>
+      </c>
+      <c r="K132" t="n">
+        <v>263</v>
+      </c>
+      <c r="L132" t="n">
+        <v>54</v>
+      </c>
+      <c r="M132" t="n">
+        <v>75</v>
+      </c>
+      <c r="N132" t="n">
+        <v>16</v>
+      </c>
+      <c r="O132" t="n">
+        <v>55.55513311767006</v>
+      </c>
+      <c r="P132" t="n">
+        <v>1.4914191825</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>12.71367191671089</v>
+      </c>
+      <c r="R132" t="n">
+        <v>4.453061224489796</v>
+      </c>
+      <c r="S132" t="n">
+        <v>22.40963855421687</v>
+      </c>
+      <c r="T132" t="n">
+        <v>34.18638088807141</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T132"/>
+  <dimension ref="A1:T133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8914,6 +8914,70 @@
         <v>34.18638088807141</v>
       </c>
     </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>75</v>
+      </c>
+      <c r="C133" t="n">
+        <v>167</v>
+      </c>
+      <c r="D133" t="n">
+        <v>37</v>
+      </c>
+      <c r="E133" t="n">
+        <v>65</v>
+      </c>
+      <c r="F133" t="n">
+        <v>83</v>
+      </c>
+      <c r="G133" t="n">
+        <v>41</v>
+      </c>
+      <c r="H133" t="n">
+        <v>22</v>
+      </c>
+      <c r="I133" t="n">
+        <v>54</v>
+      </c>
+      <c r="J133" t="n">
+        <v>21</v>
+      </c>
+      <c r="K133" t="n">
+        <v>263</v>
+      </c>
+      <c r="L133" t="n">
+        <v>55</v>
+      </c>
+      <c r="M133" t="n">
+        <v>77</v>
+      </c>
+      <c r="N133" t="n">
+        <v>20</v>
+      </c>
+      <c r="O133" t="n">
+        <v>56.10055157473613</v>
+      </c>
+      <c r="P133" t="n">
+        <v>1.48264074</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>12.66472529403232</v>
+      </c>
+      <c r="R133" t="n">
+        <v>4.485714285714286</v>
+      </c>
+      <c r="S133" t="n">
+        <v>23.24455205811138</v>
+      </c>
+      <c r="T133" t="n">
+        <v>34.5105730639809</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T133"/>
+  <dimension ref="A1:T134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8978,6 +8978,70 @@
         <v>34.5105730639809</v>
       </c>
     </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-02</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>73</v>
+      </c>
+      <c r="C134" t="n">
+        <v>169</v>
+      </c>
+      <c r="D134" t="n">
+        <v>39</v>
+      </c>
+      <c r="E134" t="n">
+        <v>60</v>
+      </c>
+      <c r="F134" t="n">
+        <v>81</v>
+      </c>
+      <c r="G134" t="n">
+        <v>39</v>
+      </c>
+      <c r="H134" t="n">
+        <v>22</v>
+      </c>
+      <c r="I134" t="n">
+        <v>51</v>
+      </c>
+      <c r="J134" t="n">
+        <v>28</v>
+      </c>
+      <c r="K134" t="n">
+        <v>268</v>
+      </c>
+      <c r="L134" t="n">
+        <v>44</v>
+      </c>
+      <c r="M134" t="n">
+        <v>71</v>
+      </c>
+      <c r="N134" t="n">
+        <v>21</v>
+      </c>
+      <c r="O134" t="n">
+        <v>55.72109639514336</v>
+      </c>
+      <c r="P134" t="n">
+        <v>1.1996392475</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>13.42855649617518</v>
+      </c>
+      <c r="R134" t="n">
+        <v>4.521739130434782</v>
+      </c>
+      <c r="S134" t="n">
+        <v>22.57281553398058</v>
+      </c>
+      <c r="T134" t="n">
+        <v>34.24796627682507</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T134"/>
+  <dimension ref="A1:T135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9042,6 +9042,70 @@
         <v>34.24796627682507</v>
       </c>
     </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-08</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>77</v>
+      </c>
+      <c r="C135" t="n">
+        <v>167</v>
+      </c>
+      <c r="D135" t="n">
+        <v>39</v>
+      </c>
+      <c r="E135" t="n">
+        <v>64</v>
+      </c>
+      <c r="F135" t="n">
+        <v>82</v>
+      </c>
+      <c r="G135" t="n">
+        <v>35</v>
+      </c>
+      <c r="H135" t="n">
+        <v>22</v>
+      </c>
+      <c r="I135" t="n">
+        <v>53</v>
+      </c>
+      <c r="J135" t="n">
+        <v>20</v>
+      </c>
+      <c r="K135" t="n">
+        <v>267</v>
+      </c>
+      <c r="L135" t="n">
+        <v>45</v>
+      </c>
+      <c r="M135" t="n">
+        <v>76</v>
+      </c>
+      <c r="N135" t="n">
+        <v>25</v>
+      </c>
+      <c r="O135" t="n">
+        <v>48.09520803693355</v>
+      </c>
+      <c r="P135" t="n">
+        <v>1.24896722</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>12.67912341010375</v>
+      </c>
+      <c r="R135" t="n">
+        <v>4.450617283950617</v>
+      </c>
+      <c r="S135" t="n">
+        <v>21.95121951219512</v>
+      </c>
+      <c r="T135" t="n">
+        <v>33.2247795894657</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T135"/>
+  <dimension ref="A1:T136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9106,6 +9106,70 @@
         <v>33.2247795894657</v>
       </c>
     </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-12</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>77</v>
+      </c>
+      <c r="C136" t="n">
+        <v>165</v>
+      </c>
+      <c r="D136" t="n">
+        <v>35</v>
+      </c>
+      <c r="E136" t="n">
+        <v>64</v>
+      </c>
+      <c r="F136" t="n">
+        <v>88</v>
+      </c>
+      <c r="G136" t="n">
+        <v>38</v>
+      </c>
+      <c r="H136" t="n">
+        <v>18</v>
+      </c>
+      <c r="I136" t="n">
+        <v>60</v>
+      </c>
+      <c r="J136" t="n">
+        <v>18</v>
+      </c>
+      <c r="K136" t="n">
+        <v>256</v>
+      </c>
+      <c r="L136" t="n">
+        <v>54</v>
+      </c>
+      <c r="M136" t="n">
+        <v>76</v>
+      </c>
+      <c r="N136" t="n">
+        <v>21</v>
+      </c>
+      <c r="O136" t="n">
+        <v>47.62726818506546</v>
+      </c>
+      <c r="P136" t="n">
+        <v>3.33320184875</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>11.02259144518368</v>
+      </c>
+      <c r="R136" t="n">
+        <v>4.443298969072165</v>
+      </c>
+      <c r="S136" t="n">
+        <v>22.73838630806846</v>
+      </c>
+      <c r="T136" t="n">
+        <v>34.3999867063191</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T136"/>
+  <dimension ref="A1:T137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9170,6 +9170,70 @@
         <v>34.3999867063191</v>
       </c>
     </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-18</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>72</v>
+      </c>
+      <c r="C137" t="n">
+        <v>178</v>
+      </c>
+      <c r="D137" t="n">
+        <v>42</v>
+      </c>
+      <c r="E137" t="n">
+        <v>71</v>
+      </c>
+      <c r="F137" t="n">
+        <v>86</v>
+      </c>
+      <c r="G137" t="n">
+        <v>34</v>
+      </c>
+      <c r="H137" t="n">
+        <v>18</v>
+      </c>
+      <c r="I137" t="n">
+        <v>45</v>
+      </c>
+      <c r="J137" t="n">
+        <v>24</v>
+      </c>
+      <c r="K137" t="n">
+        <v>269</v>
+      </c>
+      <c r="L137" t="n">
+        <v>57</v>
+      </c>
+      <c r="M137" t="n">
+        <v>83</v>
+      </c>
+      <c r="N137" t="n">
+        <v>23</v>
+      </c>
+      <c r="O137" t="n">
+        <v>45.93044392552677</v>
+      </c>
+      <c r="P137" t="n">
+        <v>2.720597555</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>15.71374336465737</v>
+      </c>
+      <c r="R137" t="n">
+        <v>4.445109780439122</v>
+      </c>
+      <c r="S137" t="n">
+        <v>24.88038277511962</v>
+      </c>
+      <c r="T137" t="n">
+        <v>34.05601007889376</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T137"/>
+  <dimension ref="A1:T138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9234,6 +9234,70 @@
         <v>34.05601007889376</v>
       </c>
     </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-19</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>72</v>
+      </c>
+      <c r="C138" t="n">
+        <v>170</v>
+      </c>
+      <c r="D138" t="n">
+        <v>42</v>
+      </c>
+      <c r="E138" t="n">
+        <v>75</v>
+      </c>
+      <c r="F138" t="n">
+        <v>89</v>
+      </c>
+      <c r="G138" t="n">
+        <v>34</v>
+      </c>
+      <c r="H138" t="n">
+        <v>18</v>
+      </c>
+      <c r="I138" t="n">
+        <v>52</v>
+      </c>
+      <c r="J138" t="n">
+        <v>23</v>
+      </c>
+      <c r="K138" t="n">
+        <v>267</v>
+      </c>
+      <c r="L138" t="n">
+        <v>51</v>
+      </c>
+      <c r="M138" t="n">
+        <v>82</v>
+      </c>
+      <c r="N138" t="n">
+        <v>25</v>
+      </c>
+      <c r="O138" t="n">
+        <v>44.70922223079879</v>
+      </c>
+      <c r="P138" t="n">
+        <v>2.98059932</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>14.95957251834158</v>
+      </c>
+      <c r="R138" t="n">
+        <v>4.492</v>
+      </c>
+      <c r="S138" t="n">
+        <v>23.68421052631579</v>
+      </c>
+      <c r="T138" t="n">
+        <v>34.34418618198649</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T138"/>
+  <dimension ref="A1:T139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9298,6 +9298,70 @@
         <v>34.34418618198649</v>
       </c>
     </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-24</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>75</v>
+      </c>
+      <c r="C139" t="n">
+        <v>172</v>
+      </c>
+      <c r="D139" t="n">
+        <v>38</v>
+      </c>
+      <c r="E139" t="n">
+        <v>71</v>
+      </c>
+      <c r="F139" t="n">
+        <v>87</v>
+      </c>
+      <c r="G139" t="n">
+        <v>36</v>
+      </c>
+      <c r="H139" t="n">
+        <v>18</v>
+      </c>
+      <c r="I139" t="n">
+        <v>57</v>
+      </c>
+      <c r="J139" t="n">
+        <v>17</v>
+      </c>
+      <c r="K139" t="n">
+        <v>265</v>
+      </c>
+      <c r="L139" t="n">
+        <v>44</v>
+      </c>
+      <c r="M139" t="n">
+        <v>81</v>
+      </c>
+      <c r="N139" t="n">
+        <v>33</v>
+      </c>
+      <c r="O139" t="n">
+        <v>45.04052145890821</v>
+      </c>
+      <c r="P139" t="n">
+        <v>3.60397767</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>13.64775617728895</v>
+      </c>
+      <c r="R139" t="n">
+        <v>4.490945674044266</v>
+      </c>
+      <c r="S139" t="n">
+        <v>22.59615384615385</v>
+      </c>
+      <c r="T139" t="n">
+        <v>34.18640319484456</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T139"/>
+  <dimension ref="A1:T140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9362,6 +9362,70 @@
         <v>34.18640319484456</v>
       </c>
     </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-25</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>77</v>
+      </c>
+      <c r="C140" t="n">
+        <v>179</v>
+      </c>
+      <c r="D140" t="n">
+        <v>48</v>
+      </c>
+      <c r="E140" t="n">
+        <v>64</v>
+      </c>
+      <c r="F140" t="n">
+        <v>85</v>
+      </c>
+      <c r="G140" t="n">
+        <v>33</v>
+      </c>
+      <c r="H140" t="n">
+        <v>19</v>
+      </c>
+      <c r="I140" t="n">
+        <v>52</v>
+      </c>
+      <c r="J140" t="n">
+        <v>16</v>
+      </c>
+      <c r="K140" t="n">
+        <v>294</v>
+      </c>
+      <c r="L140" t="n">
+        <v>38</v>
+      </c>
+      <c r="M140" t="n">
+        <v>79</v>
+      </c>
+      <c r="N140" t="n">
+        <v>26</v>
+      </c>
+      <c r="O140" t="n">
+        <v>46.29116348750098</v>
+      </c>
+      <c r="P140" t="n">
+        <v>3.1971971825</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>18.12997597623631</v>
+      </c>
+      <c r="R140" t="n">
+        <v>4.413861386138614</v>
+      </c>
+      <c r="S140" t="n">
+        <v>18.77934272300469</v>
+      </c>
+      <c r="T140" t="n">
+        <v>31.96550729394235</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T140"/>
+  <dimension ref="A1:T141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9426,6 +9426,70 @@
         <v>31.96550729394235</v>
       </c>
     </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-01</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>83</v>
+      </c>
+      <c r="C141" t="n">
+        <v>176</v>
+      </c>
+      <c r="D141" t="n">
+        <v>37</v>
+      </c>
+      <c r="E141" t="n">
+        <v>66</v>
+      </c>
+      <c r="F141" t="n">
+        <v>81</v>
+      </c>
+      <c r="G141" t="n">
+        <v>40</v>
+      </c>
+      <c r="H141" t="n">
+        <v>17</v>
+      </c>
+      <c r="I141" t="n">
+        <v>59</v>
+      </c>
+      <c r="J141" t="n">
+        <v>23</v>
+      </c>
+      <c r="K141" t="n">
+        <v>271</v>
+      </c>
+      <c r="L141" t="n">
+        <v>37</v>
+      </c>
+      <c r="M141" t="n">
+        <v>83</v>
+      </c>
+      <c r="N141" t="n">
+        <v>27</v>
+      </c>
+      <c r="O141" t="n">
+        <v>42.21394496806381</v>
+      </c>
+      <c r="P141" t="n">
+        <v>6.07858250875</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>20.94182188781527</v>
+      </c>
+      <c r="R141" t="n">
+        <v>4.352</v>
+      </c>
+      <c r="S141" t="n">
+        <v>20.86330935251799</v>
+      </c>
+      <c r="T141" t="n">
+        <v>31.80759985127969</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T141"/>
+  <dimension ref="A1:T142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9490,6 +9490,70 @@
         <v>31.80759985127969</v>
       </c>
     </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>83</v>
+      </c>
+      <c r="C142" t="n">
+        <v>174</v>
+      </c>
+      <c r="D142" t="n">
+        <v>35</v>
+      </c>
+      <c r="E142" t="n">
+        <v>67</v>
+      </c>
+      <c r="F142" t="n">
+        <v>84</v>
+      </c>
+      <c r="G142" t="n">
+        <v>36</v>
+      </c>
+      <c r="H142" t="n">
+        <v>19</v>
+      </c>
+      <c r="I142" t="n">
+        <v>50</v>
+      </c>
+      <c r="J142" t="n">
+        <v>26</v>
+      </c>
+      <c r="K142" t="n">
+        <v>268</v>
+      </c>
+      <c r="L142" t="n">
+        <v>43</v>
+      </c>
+      <c r="M142" t="n">
+        <v>85</v>
+      </c>
+      <c r="N142" t="n">
+        <v>26</v>
+      </c>
+      <c r="O142" t="n">
+        <v>39.85405547378126</v>
+      </c>
+      <c r="P142" t="n">
+        <v>3.7257907025</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>14.06907516242</v>
+      </c>
+      <c r="R142" t="n">
+        <v>4.443775100401607</v>
+      </c>
+      <c r="S142" t="n">
+        <v>23.00242130750605</v>
+      </c>
+      <c r="T142" t="n">
+        <v>32.75671897012435</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T142"/>
+  <dimension ref="A1:T143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9554,6 +9554,70 @@
         <v>32.75671897012435</v>
       </c>
     </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-08</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>78</v>
+      </c>
+      <c r="C143" t="n">
+        <v>182</v>
+      </c>
+      <c r="D143" t="n">
+        <v>28</v>
+      </c>
+      <c r="E143" t="n">
+        <v>74</v>
+      </c>
+      <c r="F143" t="n">
+        <v>78</v>
+      </c>
+      <c r="G143" t="n">
+        <v>31</v>
+      </c>
+      <c r="H143" t="n">
+        <v>20</v>
+      </c>
+      <c r="I143" t="n">
+        <v>43</v>
+      </c>
+      <c r="J143" t="n">
+        <v>17</v>
+      </c>
+      <c r="K143" t="n">
+        <v>268</v>
+      </c>
+      <c r="L143" t="n">
+        <v>48</v>
+      </c>
+      <c r="M143" t="n">
+        <v>86</v>
+      </c>
+      <c r="N143" t="n">
+        <v>29</v>
+      </c>
+      <c r="O143" t="n">
+        <v>39.4722732432646</v>
+      </c>
+      <c r="P143" t="n">
+        <v>3.66553048625</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>12.94996518612714</v>
+      </c>
+      <c r="R143" t="n">
+        <v>4.535641547861507</v>
+      </c>
+      <c r="S143" t="n">
+        <v>23.20987654320988</v>
+      </c>
+      <c r="T143" t="n">
+        <v>34.35748893234402</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T143"/>
+  <dimension ref="A1:T144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9618,6 +9618,70 @@
         <v>34.35748893234402</v>
       </c>
     </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>77</v>
+      </c>
+      <c r="C144" t="n">
+        <v>183</v>
+      </c>
+      <c r="D144" t="n">
+        <v>30</v>
+      </c>
+      <c r="E144" t="n">
+        <v>78</v>
+      </c>
+      <c r="F144" t="n">
+        <v>81</v>
+      </c>
+      <c r="G144" t="n">
+        <v>29</v>
+      </c>
+      <c r="H144" t="n">
+        <v>20</v>
+      </c>
+      <c r="I144" t="n">
+        <v>34</v>
+      </c>
+      <c r="J144" t="n">
+        <v>29</v>
+      </c>
+      <c r="K144" t="n">
+        <v>280</v>
+      </c>
+      <c r="L144" t="n">
+        <v>47</v>
+      </c>
+      <c r="M144" t="n">
+        <v>82</v>
+      </c>
+      <c r="N144" t="n">
+        <v>26</v>
+      </c>
+      <c r="O144" t="n">
+        <v>39.37469931181425</v>
+      </c>
+      <c r="P144" t="n">
+        <v>3.36560890875</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>12.78262451906</v>
+      </c>
+      <c r="R144" t="n">
+        <v>4.373493975903615</v>
+      </c>
+      <c r="S144" t="n">
+        <v>24.51923076923077</v>
+      </c>
+      <c r="T144" t="n">
+        <v>34.62172824772949</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика ШМТ.xlsx
+++ b/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T144"/>
+  <dimension ref="A1:T145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9682,6 +9682,70 @@
         <v>34.62172824772949</v>
       </c>
     </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>77</v>
+      </c>
+      <c r="C145" t="n">
+        <v>184</v>
+      </c>
+      <c r="D145" t="n">
+        <v>35</v>
+      </c>
+      <c r="E145" t="n">
+        <v>73</v>
+      </c>
+      <c r="F145" t="n">
+        <v>78</v>
+      </c>
+      <c r="G145" t="n">
+        <v>31</v>
+      </c>
+      <c r="H145" t="n">
+        <v>20</v>
+      </c>
+      <c r="I145" t="n">
+        <v>38</v>
+      </c>
+      <c r="J145" t="n">
+        <v>23</v>
+      </c>
+      <c r="K145" t="n">
+        <v>274</v>
+      </c>
+      <c r="L145" t="n">
+        <v>54</v>
+      </c>
+      <c r="M145" t="n">
+        <v>83</v>
+      </c>
+      <c r="N145" t="n">
+        <v>26</v>
+      </c>
+      <c r="O145" t="n">
+        <v>38.51683715361219</v>
+      </c>
+      <c r="P145" t="n">
+        <v>3.8184957325</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>14.07134610706</v>
+      </c>
+      <c r="R145" t="n">
+        <v>4.473895582329317</v>
+      </c>
+      <c r="S145" t="n">
+        <v>24.81927710843373</v>
+      </c>
+      <c r="T145" t="n">
+        <v>33.4005980506396</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
